--- a/ManpowerOnTap/Resources/Specs2.xlsx
+++ b/ManpowerOnTap/Resources/Specs2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="27735" windowHeight="9990" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="27735" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Decisions" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
   <si>
     <t>Options</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Ideology Drift Defence -5%</t>
-  </si>
-  <si>
-    <t>Weekly Manpower +300</t>
   </si>
   <si>
     <r>
@@ -236,12 +233,6 @@
     <t>Column4</t>
   </si>
   <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Column7</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>Mouthly Growth</t>
   </si>
   <si>
-    <t>Vitamin K Distribution (Clotting for new borns)</t>
-  </si>
-  <si>
     <t>Penicillin Manufacturing</t>
   </si>
   <si>
@@ -288,6 +276,34 @@
   </si>
   <si>
     <t>Polio Vaccine Introduction</t>
+  </si>
+  <si>
+    <t>Professional Midwifery</t>
+  </si>
+  <si>
+    <t>Obstetric Care</t>
+  </si>
+  <si>
+    <t>Flying Doctor Service</t>
+  </si>
+  <si>
+    <t>Subsidised Medical Care</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Vitamin K Distribution</t>
+  </si>
+  <si>
+    <t>Weekly Manpower +400</t>
+  </si>
+  <si>
+    <t>Universal Basic Income</t>
+  </si>
+  <si>
+    <t>Consumer Goods Factory Factor +10.0%
+0.10 PP</t>
   </si>
 </sst>
 </file>
@@ -392,7 +408,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -427,14 +446,14 @@
     <sortCondition ref="B2:B36"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="8" name="Type" dataDxfId="3"/>
-    <tableColumn id="7" name="Added?" dataDxfId="2"/>
+    <tableColumn id="8" name="Type" dataDxfId="4"/>
+    <tableColumn id="7" name="Added?" dataDxfId="3"/>
     <tableColumn id="1" name="Options"/>
     <tableColumn id="2" name="Cost"/>
     <tableColumn id="3" name="Upkeep Per Day"/>
     <tableColumn id="4" name="Bonuses (Once Off)"/>
-    <tableColumn id="5" name="Recruitable Population" dataDxfId="1"/>
-    <tableColumn id="9" name="Recruitable Population Factor" dataDxfId="0"/>
+    <tableColumn id="5" name="Recruitable Population" dataDxfId="2"/>
+    <tableColumn id="9" name="Recruitable Population Factor" dataDxfId="1"/>
     <tableColumn id="6" name="Bonus Monthly Population Growth"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -452,8 +471,10 @@
     <tableColumn id="2" name="Year"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="5" name="Monthly Growth"/>
+    <tableColumn id="6" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(F1:F3)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
@@ -750,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -891,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -952,7 +973,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -981,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1094,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -1123,7 +1144,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1152,13 +1173,13 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>33</v>
@@ -1184,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1422,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>3</v>
@@ -1448,10 +1469,10 @@
         <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>3</v>
@@ -1480,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>3</v>
@@ -1492,13 +1513,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="10"/>
+    <row r="27" spans="2:10" ht="30">
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="2"/>
@@ -1565,49 +1607,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1616,12 +1658,16 @@
         <v>1910</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1631,13 +1677,17 @@
         <v>1930</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4">
         <v>0.2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM(F3:F4)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1646,13 +1696,17 @@
         <v>1935</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4">
         <v>0.5</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM(F3:F5)</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1661,133 +1715,229 @@
         <v>1936</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4">
         <v>0.5</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(F3:F6)</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>1939</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
+        <v>1937</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM(F3:F7)</f>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1940</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
+        <v>1938</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM(F3:F8)</f>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM(F3:F9)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4">
         <v>0.3</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM(F3:F10)</f>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4">
-        <v>0.35</v>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM(F3:F11)</f>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(F3:F12)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>1937</v>
+        <v>1943</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(F3:F13)</f>
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>1938</v>
+        <v>1944</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM(F3:F14)</f>
+        <v>4.55</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <v>1941</v>
+        <v>1945</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM(F3:F15)</f>
+        <v>4.8999999999999995</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>1944</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(F3:F16)</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ManpowerOnTap/Resources/Specs2.xlsx
+++ b/ManpowerOnTap/Resources/Specs2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
   <si>
     <t>Options</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Column9</t>
   </si>
   <si>
-    <t>Column10</t>
-  </si>
-  <si>
     <t>Clean Towels and Sterile Equipment</t>
   </si>
   <si>
@@ -304,6 +301,12 @@
   <si>
     <t>Consumer Goods Factory Factor +10.0%
 0.10 PP</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Training Time -10%</t>
   </si>
 </sst>
 </file>
@@ -436,16 +439,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J36" totalsRowShown="0">
-  <autoFilter ref="B2:J36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K36" totalsRowShown="0">
+  <autoFilter ref="B2:K36">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="7"/>
+    <filterColumn colId="9"/>
   </autoFilter>
   <sortState ref="B3:J36">
     <sortCondition ref="B2:B36"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="8" name="Type" dataDxfId="4"/>
     <tableColumn id="7" name="Added?" dataDxfId="3"/>
     <tableColumn id="1" name="Options"/>
@@ -455,6 +459,7 @@
     <tableColumn id="5" name="Recruitable Population" dataDxfId="2"/>
     <tableColumn id="9" name="Recruitable Population Factor" dataDxfId="1"/>
     <tableColumn id="6" name="Bonus Monthly Population Growth"/>
+    <tableColumn id="10" name="Original"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,7 +483,7 @@
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="10" name="Original"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J36"/>
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,9 +791,10 @@
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -816,8 +822,11 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -843,10 +852,13 @@
         <v>3</v>
       </c>
       <c r="J3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -872,10 +884,13 @@
         <v>3</v>
       </c>
       <c r="J4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -901,10 +916,13 @@
         <v>3</v>
       </c>
       <c r="J5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -930,10 +948,13 @@
         <v>3</v>
       </c>
       <c r="J6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -959,10 +980,13 @@
         <v>3</v>
       </c>
       <c r="J7" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -988,10 +1012,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:11">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1017,10 +1044,13 @@
         <v>3</v>
       </c>
       <c r="J9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:11">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1046,10 +1076,13 @@
         <v>3</v>
       </c>
       <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:11">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1075,10 +1108,13 @@
         <v>3</v>
       </c>
       <c r="J11" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1104,10 +1140,13 @@
         <v>3</v>
       </c>
       <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -1133,10 +1172,13 @@
         <v>3</v>
       </c>
       <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -1162,10 +1204,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1191,10 +1236,13 @@
         <v>3</v>
       </c>
       <c r="J15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:11">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1220,10 +1268,13 @@
         <v>-0.1</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -1249,10 +1300,13 @@
         <v>3</v>
       </c>
       <c r="J17" s="4">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -1268,8 +1322,8 @@
       <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
+      <c r="G18" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H18" s="14">
         <v>3.0000000000000001E-3</v>
@@ -1280,8 +1334,11 @@
       <c r="J18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -1309,8 +1366,11 @@
       <c r="J19" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="60">
+      <c r="K19" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="60">
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -1338,8 +1398,11 @@
       <c r="J20" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="30">
+      <c r="K20" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="30">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -1367,8 +1430,11 @@
       <c r="J21" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1396,8 +1462,11 @@
       <c r="J22" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="45">
+      <c r="K22" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="45">
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -1425,8 +1494,11 @@
       <c r="J23" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="30">
+      <c r="K23" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="30">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -1452,10 +1524,13 @@
         <v>3</v>
       </c>
       <c r="J24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="30">
+    <row r="25" spans="2:11" ht="30">
       <c r="B25" s="2">
         <v>3</v>
       </c>
@@ -1472,7 +1547,7 @@
         <v>51</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>3</v>
@@ -1481,10 +1556,13 @@
         <v>3</v>
       </c>
       <c r="J25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:11">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -1512,8 +1590,11 @@
       <c r="J26" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="30">
+      <c r="K26" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="30">
       <c r="B27" s="2">
         <v>3</v>
       </c>
@@ -1521,16 +1602,16 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>3</v>
@@ -1539,34 +1620,37 @@
         <v>3</v>
       </c>
       <c r="J27" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:11">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:11">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:11">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:11">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:11">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="H32" s="9"/>
@@ -1610,7 +1694,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1634,10 +1718,10 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
@@ -1649,7 +1733,7 @@
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1658,16 +1742,19 @@
         <v>1910</v>
       </c>
       <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1677,17 +1764,20 @@
         <v>1930</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F3:F4)</f>
-        <v>1.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1696,17 +1786,20 @@
         <v>1935</v>
       </c>
       <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(F3:F5)</f>
-        <v>1.7</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1715,17 +1808,20 @@
         <v>1936</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(F3:F6)</f>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1734,17 +1830,20 @@
         <v>1937</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="4">
         <f>SUM(F3:F7)</f>
-        <v>2.4500000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1753,17 +1852,20 @@
         <v>1938</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(F3:F8)</f>
-        <v>2.7</v>
+        <v>3.4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1772,17 +1874,20 @@
         <v>1939</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(F3:F9)</f>
-        <v>3</v>
+        <v>3.9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1791,17 +1896,20 @@
         <v>1940</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(F3:F10)</f>
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1810,17 +1918,20 @@
         <v>1941</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="4">
         <f>SUM(F3:F11)</f>
-        <v>3.8</v>
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1829,17 +1940,20 @@
         <v>1942</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="4">
         <f>SUM(F3:F12)</f>
-        <v>4</v>
+        <v>5.3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1848,17 +1962,20 @@
         <v>1943</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4">
         <v>0.3</v>
       </c>
       <c r="G13" s="4">
         <f>SUM(F3:F13)</f>
-        <v>4.3</v>
+        <v>5.6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1867,17 +1984,20 @@
         <v>1944</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(F3:F14)</f>
-        <v>4.55</v>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1886,17 +2006,20 @@
         <v>1945</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="4">
         <f>SUM(F3:F15)</f>
-        <v>4.8999999999999995</v>
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1905,17 +2028,20 @@
         <v>1955</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(F3:F16)</f>
-        <v>5.3999999999999995</v>
+        <v>7.1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="7:7">

--- a/ManpowerOnTap/Resources/Specs2.xlsx
+++ b/ManpowerOnTap/Resources/Specs2.xlsx
@@ -16,32 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>Options</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Bonuses (Once Off)</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>0.05 PP</t>
-  </si>
-  <si>
     <t>Bonus Monthly Population Growth</t>
   </si>
   <si>
-    <t>30 PP</t>
-  </si>
-  <si>
-    <t>50 PP</t>
-  </si>
-  <si>
     <t>Stability -5%</t>
   </si>
   <si>
@@ -52,9 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">Higher Taxation with No Children </t>
-  </si>
-  <si>
-    <t>100 PP</t>
   </si>
   <si>
     <t>Many Child Policy</t>
@@ -93,15 +78,9 @@
 Dockyard Output -10%</t>
   </si>
   <si>
-    <t>Ideology Drift Defence -10%</t>
-  </si>
-  <si>
     <t>Occupied Conscription</t>
   </si>
   <si>
-    <t>200 PP</t>
-  </si>
-  <si>
     <t>Child Support Services Scheme</t>
   </si>
   <si>
@@ -114,10 +93,6 @@
     <t>Youth Military Service</t>
   </si>
   <si>
-    <t>Stability -10%
-War Support -5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Incentivise Adoption </t>
   </si>
   <si>
@@ -130,13 +105,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>40 PP</t>
-  </si>
-  <si>
     <t>Financial Support for Single Parents</t>
-  </si>
-  <si>
-    <t>75 PP</t>
   </si>
   <si>
     <t>Recruitable Population</t>
@@ -163,9 +132,6 @@
   </si>
   <si>
     <t>Consumer Goods Factory Factor +12.0%</t>
-  </si>
-  <si>
-    <t>Stability -7%</t>
   </si>
   <si>
     <t xml:space="preserve">Penal Battalions </t>
@@ -190,10 +156,6 @@
     </r>
   </si>
   <si>
-    <t>Consumer Goods Factory Factor +5.0%
-0.15 PP</t>
-  </si>
-  <si>
     <t>Non-Core Manpower +10%</t>
   </si>
   <si>
@@ -210,15 +172,6 @@
   </si>
   <si>
     <t>Ban Contraception</t>
-  </si>
-  <si>
-    <t>20 PP</t>
-  </si>
-  <si>
-    <t>45 PP</t>
-  </si>
-  <si>
-    <t>60 PP</t>
   </si>
   <si>
     <t>Column1</t>
@@ -307,6 +260,23 @@
   </si>
   <si>
     <t>Training Time -10%</t>
+  </si>
+  <si>
+    <t>Cost (PP)</t>
+  </si>
+  <si>
+    <t>Stability -3%</t>
+  </si>
+  <si>
+    <t>Stability -4%</t>
+  </si>
+  <si>
+    <t>Stability -5%
+War Support -5%</t>
+  </si>
+  <si>
+    <t>Consumer Goods Factory Factor +5.0%
+0.10 PP</t>
   </si>
 </sst>
 </file>
@@ -365,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -393,7 +363,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -453,7 +422,7 @@
     <tableColumn id="8" name="Type" dataDxfId="4"/>
     <tableColumn id="7" name="Added?" dataDxfId="3"/>
     <tableColumn id="1" name="Options"/>
-    <tableColumn id="2" name="Cost"/>
+    <tableColumn id="2" name="Cost (PP)"/>
     <tableColumn id="3" name="Upkeep Per Day"/>
     <tableColumn id="4" name="Bonuses (Once Off)"/>
     <tableColumn id="5" name="Recruitable Population" dataDxfId="2"/>
@@ -777,7 +746,7 @@
   <dimension ref="B2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,34 +765,34 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -831,25 +800,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="4">
         <v>0.4</v>
@@ -863,25 +832,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
         <v>0.5</v>
@@ -895,25 +864,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="4">
         <v>0.5</v>
@@ -927,25 +896,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4">
         <v>0.5</v>
@@ -959,25 +928,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8">
         <v>0.6</v>
@@ -991,25 +960,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
+      <c r="E8" s="2">
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>0.75</v>
@@ -1023,25 +992,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="8">
         <v>0.75</v>
@@ -1055,25 +1024,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="2">
+        <v>25</v>
+      </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
@@ -1087,25 +1056,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8">
         <v>0.8</v>
@@ -1119,25 +1088,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -1151,25 +1120,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -1183,25 +1152,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -1215,25 +1184,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8">
         <v>1.5</v>
@@ -1247,25 +1216,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="I16" s="18">
-        <v>-0.1</v>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="17">
+        <v>-0.05</v>
       </c>
       <c r="J16" s="4">
         <v>2</v>
@@ -1279,25 +1248,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
@@ -1311,31 +1280,31 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="14">
+        <v>74</v>
+      </c>
+      <c r="H18" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1343,31 +1312,31 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="15">
+        <v>38</v>
+      </c>
+      <c r="H19" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="60">
@@ -1375,31 +1344,31 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="14">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13">
         <v>0.01</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>0.12</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30">
@@ -1407,31 +1376,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="14">
+        <v>78</v>
+      </c>
+      <c r="H21" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>0.1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1439,31 +1408,31 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="14">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13">
         <v>0.01</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>0.1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="45">
@@ -1471,31 +1440,31 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="E23" s="2">
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23" s="9">
         <v>0.02</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>0.25</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30">
@@ -1503,25 +1472,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="2">
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="8">
         <v>0.1</v>
@@ -1535,25 +1504,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E25" s="2">
+        <v>150</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="8">
         <v>0.2</v>
@@ -1567,31 +1536,31 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="E26" s="2">
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="30">
@@ -1599,25 +1568,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>150</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="8">
         <v>0.2</v>
@@ -1706,34 +1675,34 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1742,10 +1711,10 @@
         <v>1910</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1764,10 +1733,10 @@
         <v>1930</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4">
         <v>0.4</v>
@@ -1786,10 +1755,10 @@
         <v>1935</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4">
         <v>0.6</v>
@@ -1808,10 +1777,10 @@
         <v>1936</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4">
         <v>0.6</v>
@@ -1830,10 +1799,10 @@
         <v>1937</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4">
         <v>0.4</v>
@@ -1852,10 +1821,10 @@
         <v>1938</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4">
         <v>0.4</v>
@@ -1874,10 +1843,10 @@
         <v>1939</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4">
         <v>0.5</v>
@@ -1896,10 +1865,10 @@
         <v>1940</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4">
         <v>0.5</v>
@@ -1918,10 +1887,10 @@
         <v>1941</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4">
         <v>0.6</v>
@@ -1940,10 +1909,10 @@
         <v>1942</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4">
         <v>0.3</v>
@@ -1962,10 +1931,10 @@
         <v>1943</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4">
         <v>0.3</v>
@@ -1984,10 +1953,10 @@
         <v>1944</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4">
         <v>0.4</v>
@@ -2006,10 +1975,10 @@
         <v>1945</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>0.5</v>
@@ -2028,10 +1997,10 @@
         <v>1955</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4">
         <v>0.6</v>

--- a/ManpowerOnTap/Resources/Specs2.xlsx
+++ b/ManpowerOnTap/Resources/Specs2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="80">
   <si>
     <t>Options</t>
   </si>
@@ -408,17 +408,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K36" totalsRowShown="0">
-  <autoFilter ref="B2:K36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J36" totalsRowShown="0">
+  <autoFilter ref="B2:J36">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="7"/>
-    <filterColumn colId="9"/>
   </autoFilter>
   <sortState ref="B3:J36">
     <sortCondition ref="B2:B36"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="9">
     <tableColumn id="8" name="Type" dataDxfId="4"/>
     <tableColumn id="7" name="Added?" dataDxfId="3"/>
     <tableColumn id="1" name="Options"/>
@@ -428,7 +427,6 @@
     <tableColumn id="5" name="Recruitable Population" dataDxfId="2"/>
     <tableColumn id="9" name="Recruitable Population Factor" dataDxfId="1"/>
     <tableColumn id="6" name="Bonus Monthly Population Growth"/>
-    <tableColumn id="10" name="Original"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,10 +758,10 @@
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -791,11 +789,8 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -823,11 +818,8 @@
       <c r="J3" s="4">
         <v>0.4</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -855,11 +847,8 @@
       <c r="J4" s="4">
         <v>0.5</v>
       </c>
-      <c r="K4" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -887,11 +876,8 @@
       <c r="J5" s="4">
         <v>0.5</v>
       </c>
-      <c r="K5" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -919,11 +905,8 @@
       <c r="J6" s="4">
         <v>0.5</v>
       </c>
-      <c r="K6" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -951,11 +934,8 @@
       <c r="J7" s="8">
         <v>0.6</v>
       </c>
-      <c r="K7" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -983,11 +963,8 @@
       <c r="J8" s="4">
         <v>0.75</v>
       </c>
-      <c r="K8" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1015,11 +992,8 @@
       <c r="J9" s="8">
         <v>0.75</v>
       </c>
-      <c r="K9" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1047,11 +1021,8 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1079,11 +1050,8 @@
       <c r="J11" s="8">
         <v>0.8</v>
       </c>
-      <c r="K11" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1111,11 +1079,8 @@
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -1143,11 +1108,8 @@
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -1175,11 +1137,8 @@
       <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1207,11 +1166,8 @@
       <c r="J15" s="8">
         <v>1.5</v>
       </c>
-      <c r="K15" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1239,11 +1195,8 @@
       <c r="J16" s="4">
         <v>2</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -1271,11 +1224,8 @@
       <c r="J17" s="4">
         <v>3</v>
       </c>
-      <c r="K17" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -1303,11 +1253,8 @@
       <c r="J18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -1335,11 +1282,8 @@
       <c r="J19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="60">
+    </row>
+    <row r="20" spans="2:10" ht="60">
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -1367,11 +1311,8 @@
       <c r="J20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="30">
+    </row>
+    <row r="21" spans="2:10" ht="30">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -1399,11 +1340,8 @@
       <c r="J21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1431,11 +1369,8 @@
       <c r="J22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="45">
+    </row>
+    <row r="23" spans="2:10" ht="45">
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -1463,11 +1398,8 @@
       <c r="J23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="30">
+    </row>
+    <row r="24" spans="2:10" ht="30">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -1495,11 +1427,8 @@
       <c r="J24" s="8">
         <v>0.1</v>
       </c>
-      <c r="K24" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="30">
+    </row>
+    <row r="25" spans="2:10" ht="30">
       <c r="B25" s="2">
         <v>3</v>
       </c>
@@ -1527,11 +1456,8 @@
       <c r="J25" s="8">
         <v>0.2</v>
       </c>
-      <c r="K25" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -1559,11 +1485,8 @@
       <c r="J26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="30">
+    </row>
+    <row r="27" spans="2:10" ht="30">
       <c r="B27" s="2">
         <v>3</v>
       </c>
@@ -1591,35 +1514,32 @@
       <c r="J27" s="8">
         <v>0.2</v>
       </c>
-      <c r="K27" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:10">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:10">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:10">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:10">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="H32" s="9"/>
